--- a/document/timeline.xlsx
+++ b/document/timeline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,32 +415,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="45" max="45" width="3.28515625" customWidth="1"/>
     <col min="46" max="46" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:63">
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:63">
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:63">
       <c r="W4" t="s">
         <v>4</v>
       </c>
@@ -455,7 +453,7 @@
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
     </row>
-    <row r="5" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:63">
       <c r="M5">
         <v>11</v>
       </c>
@@ -547,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" ref="AJ5:BL5" si="1">1+AI5</f>
+        <f t="shared" ref="AJ5:BJ5" si="1">1+AI5</f>
         <v>3</v>
       </c>
       <c r="AK5">
@@ -659,7 +657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:63">
       <c r="B6">
         <v>1</v>
       </c>
@@ -673,7 +671,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="8" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:63">
       <c r="B8">
         <v>2</v>
       </c>
@@ -688,7 +686,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="10" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:63">
       <c r="B10">
         <v>3</v>
       </c>
@@ -702,7 +700,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="12" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:63">
       <c r="B12">
         <v>4</v>
       </c>
@@ -717,7 +715,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="14" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:63">
       <c r="B14">
         <v>5</v>
       </c>
@@ -732,39 +730,180 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="16" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:63">
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+    </row>
+    <row r="18" spans="2:63">
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+    </row>
+    <row r="20" spans="2:63">
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+    </row>
+    <row r="22" spans="2:63">
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+    </row>
+    <row r="24" spans="2:63">
       <c r="B24">
         <v>10</v>
       </c>
@@ -772,7 +911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:63">
       <c r="B26">
         <v>11</v>
       </c>
@@ -780,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:63">
       <c r="B28">
         <v>12</v>
       </c>
@@ -794,26 +933,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
